--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5351120917213</v>
+        <v>62.90731233333333</v>
       </c>
       <c r="N2">
-        <v>18.5351120917213</v>
+        <v>188.721937</v>
       </c>
       <c r="O2">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440488</v>
       </c>
       <c r="P2">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440487</v>
       </c>
       <c r="Q2">
-        <v>101.2826759870433</v>
+        <v>759.2926857624127</v>
       </c>
       <c r="R2">
-        <v>101.2826759870433</v>
+        <v>6833.634171861714</v>
       </c>
       <c r="S2">
-        <v>0.4994338938030288</v>
+        <v>0.7141025073210836</v>
       </c>
       <c r="T2">
-        <v>0.4994338938030288</v>
+        <v>0.7141025073210836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.18684891956238</v>
+        <v>2.253965666666666</v>
       </c>
       <c r="N3">
-        <v>2.18684891956238</v>
+        <v>6.761896999999999</v>
       </c>
       <c r="O3">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="P3">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="Q3">
-        <v>11.94974756325216</v>
+        <v>27.2054166865551</v>
       </c>
       <c r="R3">
-        <v>11.94974756325216</v>
+        <v>244.8487501789959</v>
       </c>
       <c r="S3">
-        <v>0.05892526927548556</v>
+        <v>0.02558625498818885</v>
       </c>
       <c r="T3">
-        <v>0.05892526927548556</v>
+        <v>0.02558625498818885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55214097370191</v>
+        <v>1.806737666666667</v>
       </c>
       <c r="N4">
-        <v>1.55214097370191</v>
+        <v>5.420213</v>
       </c>
       <c r="O4">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="P4">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="Q4">
-        <v>8.481469685628714</v>
+        <v>21.80736458938711</v>
       </c>
       <c r="R4">
-        <v>8.481469685628714</v>
+        <v>196.266281304484</v>
       </c>
       <c r="S4">
-        <v>0.04182288223513947</v>
+        <v>0.02050947417689091</v>
       </c>
       <c r="T4">
-        <v>0.04182288223513947</v>
+        <v>0.02050947417689091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5351120917213</v>
+        <v>62.90731233333333</v>
       </c>
       <c r="N5">
-        <v>18.5351120917213</v>
+        <v>188.721937</v>
       </c>
       <c r="O5">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440488</v>
       </c>
       <c r="P5">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440487</v>
       </c>
       <c r="Q5">
-        <v>22.27716585979139</v>
+        <v>82.29962369170532</v>
       </c>
       <c r="R5">
-        <v>22.27716585979139</v>
+        <v>740.696613225348</v>
       </c>
       <c r="S5">
-        <v>0.1098506884797832</v>
+        <v>0.07740146682806061</v>
       </c>
       <c r="T5">
-        <v>0.1098506884797832</v>
+        <v>0.07740146682806059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18684891956238</v>
+        <v>2.253965666666666</v>
       </c>
       <c r="N6">
-        <v>2.18684891956238</v>
+        <v>6.761896999999999</v>
       </c>
       <c r="O6">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="P6">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="Q6">
-        <v>2.628351846501973</v>
+        <v>2.948791154798666</v>
       </c>
       <c r="R6">
-        <v>2.628351846501973</v>
+        <v>26.539120393188</v>
       </c>
       <c r="S6">
-        <v>0.01296063699137243</v>
+        <v>0.0027732904539882</v>
       </c>
       <c r="T6">
-        <v>0.01296063699137243</v>
+        <v>0.0027732904539882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55214097370191</v>
+        <v>1.806737666666667</v>
       </c>
       <c r="N7">
-        <v>1.55214097370191</v>
+        <v>5.420213</v>
       </c>
       <c r="O7">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="P7">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="Q7">
-        <v>1.865502713867023</v>
+        <v>2.363697073694667</v>
       </c>
       <c r="R7">
-        <v>1.865502713867023</v>
+        <v>21.273273663252</v>
       </c>
       <c r="S7">
-        <v>0.009198959991992243</v>
+        <v>0.002223018920797336</v>
       </c>
       <c r="T7">
-        <v>0.009198959991992243</v>
+        <v>0.002223018920797336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.5351120917213</v>
+        <v>62.90731233333333</v>
       </c>
       <c r="N8">
-        <v>18.5351120917213</v>
+        <v>188.721937</v>
       </c>
       <c r="O8">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440488</v>
       </c>
       <c r="P8">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440487</v>
       </c>
       <c r="Q8">
-        <v>45.19341689837349</v>
+        <v>157.2164871461789</v>
       </c>
       <c r="R8">
-        <v>45.19341689837349</v>
+        <v>1414.94838431561</v>
       </c>
       <c r="S8">
-        <v>0.2228527628822299</v>
+        <v>0.1478595668949046</v>
       </c>
       <c r="T8">
-        <v>0.2228527628822299</v>
+        <v>0.1478595668949046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.18684891956238</v>
+        <v>2.253965666666666</v>
       </c>
       <c r="N9">
-        <v>2.18684891956238</v>
+        <v>6.761896999999999</v>
       </c>
       <c r="O9">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="P9">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="Q9">
-        <v>5.332105596474012</v>
+        <v>5.63305840160111</v>
       </c>
       <c r="R9">
-        <v>5.332105596474012</v>
+        <v>50.69752561441</v>
       </c>
       <c r="S9">
-        <v>0.02629308748276566</v>
+        <v>0.005297800444936905</v>
       </c>
       <c r="T9">
-        <v>0.02629308748276566</v>
+        <v>0.005297800444936906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55214097370191</v>
+        <v>1.806737666666667</v>
       </c>
       <c r="N10">
-        <v>1.55214097370191</v>
+        <v>5.420213</v>
       </c>
       <c r="O10">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="P10">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="Q10">
-        <v>3.784522789095444</v>
+        <v>4.515356619321111</v>
       </c>
       <c r="R10">
-        <v>3.784522789095444</v>
+        <v>40.63820957389</v>
       </c>
       <c r="S10">
-        <v>0.01866181885820269</v>
+        <v>0.004246619971149043</v>
       </c>
       <c r="T10">
-        <v>0.01866181885820269</v>
+        <v>0.004246619971149044</v>
       </c>
     </row>
   </sheetData>
